--- a/guia/datos.xlsx
+++ b/guia/datos.xlsx
@@ -1,21 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edwin\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/esteban/git-repos/numerical-analisis-project/guia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93BE8BBD-FD16-4889-BF7F-B67CAF73982A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{696A9353-49CE-2640-BA8C-82720F74A10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="700" windowWidth="34200" windowHeight="20180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -111,17 +123,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
+      <left style="medium">
+        <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color auto="1"/>
+      <right style="medium">
+        <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color auto="1"/>
+      <top style="medium">
+        <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color auto="1"/>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -129,8 +141,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -440,827 +455,827 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="105" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="24.77734375" customWidth="1"/>
-    <col min="5" max="5" width="27.21875" customWidth="1"/>
-    <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="25.88671875" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" customWidth="1"/>
+    <col min="8" max="8" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="1">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="1">
         <v>13</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="1">
         <v>13</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="1">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="1">
         <v>18</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="1">
         <v>4.8</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>12</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
-      <c r="D5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="1">
         <v>10</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="1">
         <v>4.8</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="1">
         <v>1</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="1">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="1">
         <v>4.7</v>
       </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="H6" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="1">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7">
+      <c r="B7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1">
         <v>1</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F7">
-        <v>8</v>
-      </c>
-      <c r="G7">
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8">
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="1">
         <v>5</v>
       </c>
-      <c r="D8" t="s">
-        <v>12</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="D8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F8">
-        <v>8</v>
-      </c>
-      <c r="G8">
+      <c r="F8" s="1">
+        <v>8</v>
+      </c>
+      <c r="G8" s="1">
         <v>4.3</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9">
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="1">
         <v>5</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="1">
         <v>4.2</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="1">
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
         <v>14</v>
       </c>
-      <c r="B10" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10">
+      <c r="B10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="D10" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="1">
         <v>14</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
         <v>15</v>
       </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
+      <c r="B11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="1">
         <v>5</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F11">
-        <v>11</v>
-      </c>
-      <c r="G11">
+      <c r="F11" s="1">
+        <v>11</v>
+      </c>
+      <c r="G11" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12">
+      <c r="B12" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="1">
         <v>3</v>
       </c>
-      <c r="D12" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="1">
         <v>6</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="1">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="1">
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
         <v>6</v>
       </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13">
+      <c r="B13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="1">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-      <c r="E13" t="s">
+      <c r="D13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="1">
         <v>14</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="1">
         <v>4</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>17</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="1">
         <v>5</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="1">
         <v>16</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="1">
         <v>4</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
         <v>10</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
+      <c r="B15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="1">
         <v>1</v>
       </c>
-      <c r="D15" t="s">
-        <v>12</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="D15" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="1">
         <v>5</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="1">
         <v>3.8</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="1">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="1">
         <v>25</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="1">
         <v>1</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="1">
         <v>14</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="1">
         <v>3.8</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
         <v>24</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="1">
         <v>2</v>
       </c>
-      <c r="D17" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D17" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="1">
         <v>16</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="1">
         <v>3.7</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="1">
         <v>4</v>
       </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
+      <c r="B18" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="1">
         <v>3</v>
       </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
+      <c r="D18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="1">
         <v>15</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="1">
         <v>3.6</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="1">
         <v>9</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="1">
         <v>5</v>
       </c>
-      <c r="D19" t="s">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="1">
         <v>19</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="1">
         <v>3.6</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="1">
         <v>1</v>
       </c>
-      <c r="D20" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" t="s">
+      <c r="D20" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="1">
         <v>15</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="1">
         <v>3.4</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="1">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A21" s="1">
         <v>16</v>
       </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
+      <c r="B21" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="1">
         <v>3</v>
       </c>
-      <c r="D21" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s">
+      <c r="D21" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="1">
         <v>9</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="1">
         <v>3.2</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="1">
         <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
         <v>18</v>
       </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
+      <c r="B22" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22" s="1">
         <v>2</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F22">
+      <c r="F22" s="1">
         <v>10</v>
       </c>
-      <c r="G22">
+      <c r="G22" s="1">
         <v>3.1</v>
       </c>
-      <c r="H22">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="H22" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
+      <c r="B23" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23" s="1">
         <v>2</v>
       </c>
-      <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="D23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F23">
+      <c r="F23" s="1">
         <v>20</v>
       </c>
-      <c r="G23">
+      <c r="G23" s="1">
         <v>2.7</v>
       </c>
-      <c r="H23">
+      <c r="H23" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>8</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
         <v>4</v>
       </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
+      <c r="D24" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F24">
+      <c r="F24" s="1">
         <v>10</v>
       </c>
-      <c r="G24">
+      <c r="G24" s="1">
         <v>2.5</v>
       </c>
-      <c r="H24">
+      <c r="H24" s="1">
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="1">
         <v>5</v>
       </c>
-      <c r="B25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C25">
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1">
         <v>5</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F25">
-        <v>8</v>
-      </c>
-      <c r="G25">
+      <c r="F25" s="1">
+        <v>8</v>
+      </c>
+      <c r="G25" s="1">
         <v>2.4</v>
       </c>
-      <c r="H25">
+      <c r="H25" s="1">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="1">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
+      <c r="B26" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" s="1">
         <v>3</v>
       </c>
-      <c r="D26" t="s">
-        <v>12</v>
-      </c>
-      <c r="E26" t="s">
+      <c r="D26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F26">
+      <c r="F26" s="1">
         <v>5</v>
       </c>
-      <c r="G26">
+      <c r="G26" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H26">
+      <c r="H26" s="1">
         <v>27</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="1">
         <v>28</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="1">
         <v>4</v>
       </c>
-      <c r="D27" t="s">
-        <v>11</v>
-      </c>
-      <c r="E27" t="s">
+      <c r="D27" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F27">
-        <v>12</v>
-      </c>
-      <c r="G27">
+      <c r="F27" s="1">
+        <v>12</v>
+      </c>
+      <c r="G27" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H27">
+      <c r="H27" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
         <v>29</v>
       </c>
-      <c r="B28" t="s">
-        <v>8</v>
-      </c>
-      <c r="C28">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1">
         <v>3</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F28">
+      <c r="F28" s="1">
         <v>7</v>
       </c>
-      <c r="G28">
+      <c r="G28" s="1">
         <v>2.2000000000000002</v>
       </c>
-      <c r="H28">
+      <c r="H28" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="1">
         <v>23</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="1">
         <v>1</v>
       </c>
-      <c r="D29" t="s">
-        <v>11</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F29">
-        <v>8</v>
-      </c>
-      <c r="G29">
+      <c r="F29" s="1">
+        <v>8</v>
+      </c>
+      <c r="G29" s="1">
         <v>2.1</v>
       </c>
-      <c r="H29">
+      <c r="H29" s="1">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
         <v>30</v>
       </c>
-      <c r="B30" t="s">
-        <v>8</v>
-      </c>
-      <c r="C30">
+      <c r="B30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="1">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F30">
+      <c r="F30" s="1">
         <v>7</v>
       </c>
-      <c r="G30">
+      <c r="G30" s="1">
         <v>2.1</v>
       </c>
-      <c r="H30">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31">
+      <c r="H30" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31">
+      <c r="B31" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="1">
         <v>4</v>
       </c>
-      <c r="D31" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" t="s">
+      <c r="D31" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F31">
-        <v>12</v>
-      </c>
-      <c r="G31">
+      <c r="F31" s="1">
+        <v>12</v>
+      </c>
+      <c r="G31" s="1">
         <v>2</v>
       </c>
-      <c r="H31">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="33" spans="7:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="7:7" x14ac:dyDescent="0.2">
       <c r="G33">
         <f>SUM(G2:G31)</f>
         <v>105.9</v>
